--- a/Yearly-Report-2022-DE763212.xlsx
+++ b/Yearly-Report-2022-DE763212.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhashimk\Documents\UiPath\Generate Yearly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4821BC96-0B4F-4D45-AEEB-13E870CB88FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C84163-C492-4AAB-95B4-DD139F142F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2790" windowWidth="21600" windowHeight="11235" xr2:uid="{9F44CC0D-D5D0-4230-BD53-C2E159D4D575}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{9F44CC0D-D5D0-4230-BD53-C2E159D4D575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>InvoiceNumber</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>IT Support</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -467,255 +470,255 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>785703</v>
+        <v>751616</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>228757</v>
+        <v>200201</v>
       </c>
       <c r="D2">
-        <v>45751.4</v>
+        <v>40040.199999999997</v>
       </c>
       <c r="E2">
-        <v>274508</v>
+        <v>240241</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>42756</v>
+        <v>42751</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>425460</v>
+        <v>859389</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>58733</v>
+        <v>64061</v>
       </c>
       <c r="D3">
-        <v>11746.6</v>
+        <v>12812.2</v>
       </c>
       <c r="E3">
-        <v>70479.600000000006</v>
+        <v>76873.2</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>42754</v>
+        <v>43026</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>315716</v>
+        <v>832873</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>139155</v>
+        <v>299454</v>
       </c>
       <c r="D4">
-        <v>27831</v>
+        <v>59890.8</v>
       </c>
       <c r="E4">
-        <v>166986</v>
+        <v>359345</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>43031</v>
+        <v>43022</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>731221</v>
+        <v>456586</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>230031</v>
+        <v>58951</v>
       </c>
       <c r="D5">
-        <v>46006.2</v>
+        <v>11790.2</v>
       </c>
       <c r="E5">
-        <v>276037</v>
+        <v>70741.2</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>43041</v>
+        <v>43059</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>911090</v>
+        <v>707680</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>25657</v>
+        <v>15023</v>
       </c>
       <c r="D6">
-        <v>5131.3999999999996</v>
+        <v>3004.6</v>
       </c>
       <c r="E6">
-        <v>30788.400000000001</v>
+        <v>18027.599999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>43067</v>
+        <v>42772</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>170131</v>
+        <v>391793</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>197018</v>
+        <v>205853</v>
       </c>
       <c r="D7">
-        <v>39403.599999999999</v>
+        <v>41170.6</v>
       </c>
       <c r="E7">
-        <v>236422</v>
+        <v>247024</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>43075</v>
+        <v>42836</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>865925</v>
+        <v>806834</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>87699</v>
+        <v>140182</v>
       </c>
       <c r="D8">
-        <v>17539.8</v>
+        <v>28036.400000000001</v>
       </c>
       <c r="E8">
-        <v>105239</v>
+        <v>168218</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>42782</v>
+        <v>42871</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>773800</v>
+        <v>541087</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>259050</v>
+        <v>23645</v>
       </c>
       <c r="D9">
-        <v>51810</v>
+        <v>4729</v>
       </c>
       <c r="E9">
-        <v>310860</v>
+        <v>28374</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>42829</v>
+        <v>42874</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>187403</v>
+        <v>648957</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>21017</v>
+        <v>164089</v>
       </c>
       <c r="D10">
-        <v>4203.3999999999996</v>
+        <v>32817.800000000003</v>
       </c>
       <c r="E10">
-        <v>25220.400000000001</v>
+        <v>196907</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1">
-        <v>42964</v>
+        <v>42903</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>652912</v>
+        <v>804951</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>116907</v>
+        <v>6811</v>
       </c>
       <c r="D11">
-        <v>23381.4</v>
+        <v>1362.2</v>
       </c>
       <c r="E11">
-        <v>140288</v>
+        <v>8173.2</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>42965</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>361793</v>
+        <v>654408</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>37715</v>
+        <v>20516</v>
       </c>
       <c r="D12">
-        <v>7543</v>
+        <v>4103.2</v>
       </c>
       <c r="E12">
-        <v>45258</v>
+        <v>24619.200000000001</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>42980</v>
+        <v>42990</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
